--- a/results/table_parameters_irt.xlsx
+++ b/results/table_parameters_irt.xlsx
@@ -35,163 +35,163 @@
     <t xml:space="preserve">$\beta_1$</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.756</t>
+    <t xml:space="preserve">-0.766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\beta_2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.926</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.183</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\alpha$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.417</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\mu_1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\mu_2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.557</t>
   </si>
   <si>
     <t xml:space="preserve">1.007</t>
   </si>
   <si>
-    <t xml:space="preserve">-2.498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\beta_2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.921</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\alpha$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.435</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\mu_1$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\mu_2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.942</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.233</t>
+    <t xml:space="preserve"> 0.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.237</t>
   </si>
   <si>
     <t xml:space="preserve">$\mu_3$</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.276</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.106</t>
+    <t xml:space="preserve"> 1.357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.087</t>
   </si>
   <si>
     <t xml:space="preserve">$\mu_4$</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.091</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.070</t>
+    <t xml:space="preserve"> 2.253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.086</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.061</t>
   </si>
   <si>
     <t xml:space="preserve">$\sigma_b$</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.292</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.441</t>
+    <t xml:space="preserve"> 2.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.436</t>
   </si>
   <si>
     <t xml:space="preserve">$\sigma_a$</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.217</t>
+    <t xml:space="preserve"> 0.219</t>
   </si>
   <si>
     <t xml:space="preserve">0.279</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.010</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.851</t>
+    <t xml:space="preserve"> 0.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.835</t>
   </si>
   <si>
     <t xml:space="preserve">$\sigma_\text{Gov}$</t>
@@ -212,19 +212,19 @@
     <t xml:space="preserve">$\rho_{a, b}$</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.119</t>
+    <t xml:space="preserve">-0.122</t>
   </si>
   <si>
     <t xml:space="preserve">0.530</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.818</t>
+    <t xml:space="preserve">-0.899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816</t>
   </si>
   <si>
     <t xml:space="preserve">$\rho_{\text{Gov},\text{Out}}$</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve"> 0.525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.132</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.591</t>
+    <t xml:space="preserve">0.346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.594</t>
   </si>
   <si>
     <t xml:space="preserve">0.957</t>
